--- a/data/trans_orig/P1409-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2815</v>
+        <v>2901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13552</v>
+        <v>14116</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01551282243926424</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006438949813771304</v>
+        <v>0.006636233152079011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03099655607364565</v>
+        <v>0.03228733065844887</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>5139</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1981</v>
+        <v>1134</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14527</v>
+        <v>12338</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01634366030994111</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006298547827506234</v>
+        <v>0.003606158208334769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04619891596417243</v>
+        <v>0.03923703940489128</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -785,19 +785,19 @@
         <v>11922</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6580</v>
+        <v>5846</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20937</v>
+        <v>21090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01586039814294949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008754201527526791</v>
+        <v>0.007777279002852992</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02785412924427109</v>
+        <v>0.02805752831076412</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>430429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423659</v>
+        <v>423095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>434396</v>
+        <v>434310</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9844871775607358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9690034439263544</v>
+        <v>0.9677126693415511</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9935610501862286</v>
+        <v>0.9933637668479209</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>279</v>
@@ -835,19 +835,19 @@
         <v>309315</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299927</v>
+        <v>302116</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312473</v>
+        <v>313320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9836563396900588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9538010840358284</v>
+        <v>0.9607629605951087</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9937014521724937</v>
+        <v>0.9963938417916652</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>676</v>
@@ -856,19 +856,19 @@
         <v>739743</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>730728</v>
+        <v>730575</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745085</v>
+        <v>745819</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9841396018570505</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9721458707557288</v>
+        <v>0.9719424716892359</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9912457984724732</v>
+        <v>0.9922227209971469</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>6326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2069</v>
+        <v>2092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16705</v>
+        <v>16084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01510594670569402</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004939485100999015</v>
+        <v>0.004996268941373317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03988830030023869</v>
+        <v>0.03840521223349988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -981,19 +981,19 @@
         <v>13520</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7683</v>
+        <v>7833</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23338</v>
+        <v>23740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03999733538629321</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02272875633417968</v>
+        <v>0.02317256831504799</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06904656320485816</v>
+        <v>0.0702335199175944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1002,19 +1002,19 @@
         <v>19846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11958</v>
+        <v>11874</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33203</v>
+        <v>31938</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02622311910105789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01580056559327457</v>
+        <v>0.01568916805552612</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04387275398115922</v>
+        <v>0.04220058807306418</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>412471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402092</v>
+        <v>402713</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416728</v>
+        <v>416705</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.984894053294306</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9601116996997614</v>
+        <v>0.9615947877665001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.995060514899001</v>
+        <v>0.9950037310586267</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>293</v>
@@ -1052,19 +1052,19 @@
         <v>324491</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314673</v>
+        <v>314271</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>330328</v>
+        <v>330178</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9600026646137068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.930953436795142</v>
+        <v>0.929766480082406</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9772712436658204</v>
+        <v>0.9768274316849522</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>663</v>
@@ -1073,19 +1073,19 @@
         <v>736962</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>723605</v>
+        <v>724870</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>744850</v>
+        <v>744934</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9737768808989421</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9561272460188411</v>
+        <v>0.9577994119269362</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9841994344067254</v>
+        <v>0.9843108319444739</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>10977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5669</v>
+        <v>5840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18807</v>
+        <v>20046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01744038273297039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009007466124413046</v>
+        <v>0.009278386859861426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02987940996296208</v>
+        <v>0.03184924017333746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1198,19 +1198,19 @@
         <v>7101</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2976</v>
+        <v>2835</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16448</v>
+        <v>14650</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02729918654871042</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01144066296650869</v>
+        <v>0.01089764668211106</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0632290852718996</v>
+        <v>0.05631825068111167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1219,19 +1219,19 @@
         <v>18079</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10978</v>
+        <v>11042</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28855</v>
+        <v>27652</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02032339278880447</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01234152083162067</v>
+        <v>0.01241277954476248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03243821046636419</v>
+        <v>0.03108596294703544</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>618438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610608</v>
+        <v>609369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623746</v>
+        <v>623575</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9825596172670296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9701205900370379</v>
+        <v>0.9681507598266625</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9909925338755869</v>
+        <v>0.9907216131401385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>238</v>
@@ -1269,19 +1269,19 @@
         <v>253028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243681</v>
+        <v>245479</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257153</v>
+        <v>257294</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9727008134512896</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9367709147281007</v>
+        <v>0.9436817493188893</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9885593370334913</v>
+        <v>0.989102353317889</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>818</v>
@@ -1290,19 +1290,19 @@
         <v>871465</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>860689</v>
+        <v>861892</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>878566</v>
+        <v>878502</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9796766072111955</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9675617895336358</v>
+        <v>0.9689140370529645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9876584791683793</v>
+        <v>0.9875872204552375</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>23459</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15105</v>
+        <v>14911</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35285</v>
+        <v>36055</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02024077852867296</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01303231091857224</v>
+        <v>0.0128655328752975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03044404117729526</v>
+        <v>0.03110886929710684</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1415,19 +1415,19 @@
         <v>20519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12873</v>
+        <v>12557</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31791</v>
+        <v>31348</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02683206819405248</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01683357398463561</v>
+        <v>0.01642089874219126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04157136413727853</v>
+        <v>0.04099321886958641</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1436,19 +1436,19 @@
         <v>43978</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31445</v>
+        <v>31378</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60262</v>
+        <v>60203</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02286094960762768</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0163456245381432</v>
+        <v>0.01631123823270128</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03132578014269132</v>
+        <v>0.03129466137761674</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1135550</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1123724</v>
+        <v>1122954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1143904</v>
+        <v>1144098</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.979759221471327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9695559588227044</v>
+        <v>0.9688911307028932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9869676890814272</v>
+        <v>0.9871344671247025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>691</v>
@@ -1486,19 +1486,19 @@
         <v>744203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>732931</v>
+        <v>733374</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>751849</v>
+        <v>752165</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9731679318059475</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9584286358627216</v>
+        <v>0.9590067811304135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.983166426015365</v>
+        <v>0.9835791012578087</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1752</v>
@@ -1507,19 +1507,19 @@
         <v>1879753</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1863469</v>
+        <v>1863528</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1892286</v>
+        <v>1892353</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9771390503923724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9686742198573087</v>
+        <v>0.9687053386223833</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9836543754618569</v>
+        <v>0.9836887617672988</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>11188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5910</v>
+        <v>5970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19321</v>
+        <v>19179</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02191118669873149</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0115741855934011</v>
+        <v>0.01169298196939042</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03783935737196237</v>
+        <v>0.03756279608522156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1632,19 +1632,19 @@
         <v>22924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14097</v>
+        <v>15093</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35183</v>
+        <v>35864</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03015302357140692</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01854254681070786</v>
+        <v>0.01985326901161107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04627871988123357</v>
+        <v>0.04717478830503014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1653,19 +1653,19 @@
         <v>34112</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24418</v>
+        <v>22754</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48699</v>
+        <v>46775</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02684163685011452</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01921393016930988</v>
+        <v>0.01790456371757123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0383203681648512</v>
+        <v>0.0368060169745175</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>499408</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>491275</v>
+        <v>491417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>504686</v>
+        <v>504626</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9780888133012685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9621606426280376</v>
+        <v>0.9624372039147784</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9884258144065988</v>
+        <v>0.9883070180306096</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>681</v>
@@ -1703,19 +1703,19 @@
         <v>737322</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>725063</v>
+        <v>724382</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>746149</v>
+        <v>745153</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9698469764285931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9537212801187661</v>
+        <v>0.9528252116949696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9814574531892921</v>
+        <v>0.9801467309883888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1157</v>
@@ -1724,19 +1724,19 @@
         <v>1236731</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1222144</v>
+        <v>1224068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1246425</v>
+        <v>1248089</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9731583631498855</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9616796318351488</v>
+        <v>0.9631939830254824</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9807860698306901</v>
+        <v>0.9820954362824287</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>6688</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2816</v>
+        <v>2837</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13789</v>
+        <v>13820</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02506044682835833</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01055291450820155</v>
+        <v>0.01062944432584084</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05166832623325853</v>
+        <v>0.05178223737683317</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1849,19 +1849,19 @@
         <v>26977</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18303</v>
+        <v>18203</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39442</v>
+        <v>39721</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02434411979350601</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01651621662996149</v>
+        <v>0.01642655398313746</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03559193665178913</v>
+        <v>0.03584420689001383</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -1870,19 +1870,19 @@
         <v>33666</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23574</v>
+        <v>23344</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45279</v>
+        <v>46368</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02448315087098573</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01714433832993789</v>
+        <v>0.01697675644586971</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03292930816059302</v>
+        <v>0.0337209897744522</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>260194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253093</v>
+        <v>253062</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264066</v>
+        <v>264045</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9749395531716417</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9483316737667422</v>
+        <v>0.948217762623167</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9894470854917985</v>
+        <v>0.9893705556741592</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1017</v>
@@ -1920,19 +1920,19 @@
         <v>1081192</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1068727</v>
+        <v>1068448</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1089866</v>
+        <v>1089966</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.975655880206494</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9644080633482108</v>
+        <v>0.9641557931099861</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9834837833700385</v>
+        <v>0.9835734460168625</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1275</v>
@@ -1941,19 +1941,19 @@
         <v>1341385</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1329772</v>
+        <v>1328683</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1351477</v>
+        <v>1351707</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9755168491290143</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.967070691839407</v>
+        <v>0.9662790102255477</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9828556616700621</v>
+        <v>0.9830232435541303</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>65421</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49741</v>
+        <v>49798</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82538</v>
+        <v>82851</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01911830933602595</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01453605289990812</v>
+        <v>0.01455257670335057</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02412054190904282</v>
+        <v>0.02421196170016783</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -2066,19 +2066,19 @@
         <v>96180</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78757</v>
+        <v>78358</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>118854</v>
+        <v>118083</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02712568078871614</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02221167736697129</v>
+        <v>0.02209937684433022</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03352027171645662</v>
+        <v>0.03330280398614644</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -2087,19 +2087,19 @@
         <v>161602</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136103</v>
+        <v>136882</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>188604</v>
+        <v>189356</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02319314451040157</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01953363567658294</v>
+        <v>0.01964539342597777</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02706850664280759</v>
+        <v>0.02717649033712182</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>3356489</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3339372</v>
+        <v>3339059</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3372169</v>
+        <v>3372112</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.980881690663974</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.975879458090957</v>
+        <v>0.9757880382998322</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9854639471000919</v>
+        <v>0.9854474232966492</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3199</v>
@@ -2137,19 +2137,19 @@
         <v>3449552</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3426878</v>
+        <v>3427649</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3466975</v>
+        <v>3467374</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9728743192112839</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9664797282835433</v>
+        <v>0.9666971960138533</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9777883226330286</v>
+        <v>0.9779006231556697</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6341</v>
@@ -2158,19 +2158,19 @@
         <v>6806040</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6779038</v>
+        <v>6778286</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6831539</v>
+        <v>6830760</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9768068554895984</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9729314933571924</v>
+        <v>0.9728235096628782</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9804663643234172</v>
+        <v>0.9803546065740223</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>8045</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16140</v>
+        <v>16177</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01874774490803296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007429477023099687</v>
+        <v>0.007435544090088671</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03761460722268076</v>
+        <v>0.03770100786676633</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2525,19 +2525,19 @@
         <v>9546</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4758</v>
+        <v>4679</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16830</v>
+        <v>17817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02750652626566909</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0137083504192125</v>
+        <v>0.01348334874452491</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04849238715931528</v>
+        <v>0.05133811719828441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -2546,19 +2546,19 @@
         <v>17591</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10372</v>
+        <v>10644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29111</v>
+        <v>27190</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0226642431623369</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01336360553943598</v>
+        <v>0.01371384481168979</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03750736086640684</v>
+        <v>0.03503152000894613</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>421047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412952</v>
+        <v>412915</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425904</v>
+        <v>425901</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.981252255091967</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9623853927773194</v>
+        <v>0.9622989921332336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9925705229769004</v>
+        <v>0.9925644559099112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>322</v>
@@ -2596,19 +2596,19 @@
         <v>337509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>330225</v>
+        <v>329238</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>342297</v>
+        <v>342376</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9724934737343309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9515076128406834</v>
+        <v>0.9486618828017156</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9862916495807874</v>
+        <v>0.9865166512554751</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>711</v>
@@ -2617,19 +2617,19 @@
         <v>758556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>747036</v>
+        <v>748957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>765775</v>
+        <v>765503</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.977335756837663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9624926391335931</v>
+        <v>0.9649684799910538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9866363944605639</v>
+        <v>0.9862861551883101</v>
       </c>
     </row>
     <row r="6">
@@ -2721,19 +2721,19 @@
         <v>9647</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4800</v>
+        <v>4750</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18312</v>
+        <v>18171</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02557300288274776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01272386201596575</v>
+        <v>0.01259079742869576</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04854484411435524</v>
+        <v>0.04817104166048114</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2742,19 +2742,19 @@
         <v>16927</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10849</v>
+        <v>10675</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26185</v>
+        <v>26100</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04546938491219148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.029141585871168</v>
+        <v>0.02867392822157061</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07033739617363811</v>
+        <v>0.0701098112301046</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -2763,19 +2763,19 @@
         <v>26574</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18490</v>
+        <v>17605</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38509</v>
+        <v>38680</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0354554425956294</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02467006747647554</v>
+        <v>0.02348928269334522</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05137930648321544</v>
+        <v>0.05160744351532916</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>367580</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>358915</v>
+        <v>359056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>372427</v>
+        <v>372477</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9744269971172522</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9514551558856448</v>
+        <v>0.9518289583395186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9872761379840342</v>
+        <v>0.9874092025713042</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>335</v>
@@ -2813,19 +2813,19 @@
         <v>355346</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>346088</v>
+        <v>346173</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>361424</v>
+        <v>361598</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9545306150878086</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9296626038263619</v>
+        <v>0.9298901887698954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9708584141288321</v>
+        <v>0.9713260717784294</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>680</v>
@@ -2834,19 +2834,19 @@
         <v>722926</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>710991</v>
+        <v>710820</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>731010</v>
+        <v>731895</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9645445574043706</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9486206935167846</v>
+        <v>0.9483925564846708</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9753299325235245</v>
+        <v>0.9765107173066547</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>9060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4498</v>
+        <v>4355</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17237</v>
+        <v>16201</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01736000270932444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008618725145133503</v>
+        <v>0.008343485043661482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0330272324884124</v>
+        <v>0.03104107748368418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2959,19 +2959,19 @@
         <v>4719</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12427</v>
+        <v>11583</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02840530578298424</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006623243545156115</v>
+        <v>0.00640499604233958</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07480409764702182</v>
+        <v>0.06972605249950056</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -2980,19 +2980,19 @@
         <v>13779</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7337</v>
+        <v>7066</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24113</v>
+        <v>23501</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02002683322307254</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01066372768057697</v>
+        <v>0.01026951021284265</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03504599957916645</v>
+        <v>0.03415607559213367</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>512854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>504677</v>
+        <v>505713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>517416</v>
+        <v>517559</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9826399972906755</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9669727675115877</v>
+        <v>0.9689589225163159</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9913812748548665</v>
+        <v>0.9916565149563386</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -3030,19 +3030,19 @@
         <v>161404</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153696</v>
+        <v>154540</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165023</v>
+        <v>165059</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9715946942170157</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9251959023529788</v>
+        <v>0.9302739475004994</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.993376756454844</v>
+        <v>0.9935950039576604</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>642</v>
@@ -3051,19 +3051,19 @@
         <v>674257</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>663923</v>
+        <v>664535</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680699</v>
+        <v>680970</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9799731667769275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9649540004208337</v>
+        <v>0.9658439244078665</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9893362723194232</v>
+        <v>0.9897304897871576</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>24270</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16040</v>
+        <v>15958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35496</v>
+        <v>35971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02111133637603134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01395251858686493</v>
+        <v>0.01388104265975027</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0308761881156879</v>
+        <v>0.03128878327227291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -3176,19 +3176,19 @@
         <v>25845</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16560</v>
+        <v>16956</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36420</v>
+        <v>37852</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03129428743535605</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02005184430521374</v>
+        <v>0.02053108225898558</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04409819463798202</v>
+        <v>0.04583203562315499</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -3197,19 +3197,19 @@
         <v>50116</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37288</v>
+        <v>38908</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65993</v>
+        <v>67006</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02536838161640446</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01887513510779776</v>
+        <v>0.01969500347221021</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03340554628692106</v>
+        <v>0.03391850486138791</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>1125368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1114142</v>
+        <v>1113667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1133598</v>
+        <v>1133680</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9788886636239686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9691238118843118</v>
+        <v>0.9687112167277271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.986047481413135</v>
+        <v>0.9861189573402496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>773</v>
@@ -3247,19 +3247,19 @@
         <v>800031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>789456</v>
+        <v>788024</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>809316</v>
+        <v>808920</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.968705712564644</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.955901805362018</v>
+        <v>0.954167964376845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9799481556947862</v>
+        <v>0.9794689177410144</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1852</v>
@@ -3268,19 +3268,19 @@
         <v>1925398</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1909521</v>
+        <v>1908508</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1938226</v>
+        <v>1936606</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9746316183835956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9665944537130792</v>
+        <v>0.9660814951386125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9811248648922023</v>
+        <v>0.9803049965277899</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>21675</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13477</v>
+        <v>13743</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32605</v>
+        <v>31906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03491991556103687</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02171180001208453</v>
+        <v>0.02214143990728781</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05252928203664096</v>
+        <v>0.051403201691451</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -3393,19 +3393,19 @@
         <v>38923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28610</v>
+        <v>28035</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53847</v>
+        <v>52746</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05272320908660091</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03875478702007634</v>
+        <v>0.0379758178102195</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07293883369159988</v>
+        <v>0.07144788633591095</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -3414,19 +3414,19 @@
         <v>60598</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45813</v>
+        <v>47586</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77657</v>
+        <v>78724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04459148319228503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03371204977003296</v>
+        <v>0.03501700981834296</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05714501484231003</v>
+        <v>0.05793004621922369</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>599031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>588101</v>
+        <v>588800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>607229</v>
+        <v>606963</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9650800844389631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.947470717963359</v>
+        <v>0.948596798308549</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9782881999879156</v>
+        <v>0.9778585600927121</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>663</v>
@@ -3464,19 +3464,19 @@
         <v>699321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>684397</v>
+        <v>685498</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>709634</v>
+        <v>710209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9472767909133991</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9270611663083999</v>
+        <v>0.9285521136640891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9612452129799236</v>
+        <v>0.9620241821897806</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1238</v>
@@ -3485,19 +3485,19 @@
         <v>1298352</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1281293</v>
+        <v>1280226</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1313137</v>
+        <v>1311364</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.955408516807715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9428549851576905</v>
+        <v>0.9420699537807763</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9662879502299672</v>
+        <v>0.964982990181657</v>
       </c>
     </row>
     <row r="18">
@@ -3589,19 +3589,19 @@
         <v>13488</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7251</v>
+        <v>7076</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22993</v>
+        <v>21621</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04697115486453425</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02525074575670025</v>
+        <v>0.0246437111357677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08007579215102723</v>
+        <v>0.07529815039844076</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -3610,19 +3610,19 @@
         <v>42257</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29848</v>
+        <v>30509</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59048</v>
+        <v>58570</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03905320580905679</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02758528144175287</v>
+        <v>0.02819588871737314</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.054571703803409</v>
+        <v>0.05412969640894073</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -3631,19 +3631,19 @@
         <v>55744</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43517</v>
+        <v>42440</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75214</v>
+        <v>71503</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04071377436489004</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03178327852373723</v>
+        <v>0.0309971098031835</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0549337336588458</v>
+        <v>0.05222369169214085</v>
       </c>
     </row>
     <row r="20">
@@ -3660,19 +3660,19 @@
         <v>273657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264152</v>
+        <v>265524</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279894</v>
+        <v>280069</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9530288451354657</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9199242078489729</v>
+        <v>0.9247018496015593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9747492542432998</v>
+        <v>0.9753562888642323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>955</v>
@@ -3681,19 +3681,19 @@
         <v>1039768</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1022977</v>
+        <v>1023455</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1052177</v>
+        <v>1051516</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9609467941909432</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.945428296196591</v>
+        <v>0.9458703035910591</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9724147185582471</v>
+        <v>0.9718041112826269</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1214</v>
@@ -3702,19 +3702,19 @@
         <v>1313426</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1293956</v>
+        <v>1297667</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1325653</v>
+        <v>1326730</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.95928622563511</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9450662663411543</v>
+        <v>0.9477763083078592</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.968216721476263</v>
+        <v>0.9690028901968166</v>
       </c>
     </row>
     <row r="21">
@@ -3806,19 +3806,19 @@
         <v>86185</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70219</v>
+        <v>69433</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106516</v>
+        <v>105774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02545533662949302</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02073961236344309</v>
+        <v>0.02050766688005118</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03146024080801835</v>
+        <v>0.03124125312215065</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>129</v>
@@ -3827,19 +3827,19 @@
         <v>138216</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>116798</v>
+        <v>116522</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>164875</v>
+        <v>164814</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03913709904652709</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03307241016769193</v>
+        <v>0.03299414912132293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04668575359866898</v>
+        <v>0.04666851429283316</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>213</v>
@@ -3848,19 +3848,19 @@
         <v>224401</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>197033</v>
+        <v>197425</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>256404</v>
+        <v>255467</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0324404796226959</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02848401337994184</v>
+        <v>0.02854074210533305</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03706697198603386</v>
+        <v>0.03693145704992981</v>
       </c>
     </row>
     <row r="23">
@@ -3877,19 +3877,19 @@
         <v>3299537</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3279206</v>
+        <v>3279948</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3315503</v>
+        <v>3316289</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9745446633705069</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9685397591919815</v>
+        <v>0.9687587468778497</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.979260387636557</v>
+        <v>0.9794923331199489</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3197</v>
@@ -3898,19 +3898,19 @@
         <v>3393380</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3366721</v>
+        <v>3366782</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3414798</v>
+        <v>3415074</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9608629009534729</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9533142464013312</v>
+        <v>0.9533314857071671</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9669275898323081</v>
+        <v>0.9670058508786771</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6337</v>
@@ -3919,19 +3919,19 @@
         <v>6692917</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6660914</v>
+        <v>6661851</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6720285</v>
+        <v>6719893</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9675595203773041</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9629330280139661</v>
+        <v>0.9630685429500702</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9715159866200582</v>
+        <v>0.971459257894667</v>
       </c>
     </row>
     <row r="24">
@@ -4265,19 +4265,19 @@
         <v>18266</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10815</v>
+        <v>10891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28507</v>
+        <v>28532</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03317397887448219</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0196413178136752</v>
+        <v>0.0197800285764631</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05177200399591402</v>
+        <v>0.05181805666392626</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -4286,19 +4286,19 @@
         <v>22338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15456</v>
+        <v>14771</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30516</v>
+        <v>30453</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04573559235521194</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03164524969711149</v>
+        <v>0.03024392649195932</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06248022479737229</v>
+        <v>0.06235025958798687</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -4307,19 +4307,19 @@
         <v>40604</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30378</v>
+        <v>30017</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53825</v>
+        <v>53323</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03907874945335559</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02923732202239388</v>
+        <v>0.02888992553719447</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05180312491894191</v>
+        <v>0.05131990314295352</v>
       </c>
     </row>
     <row r="5">
@@ -4336,19 +4336,19 @@
         <v>532352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>522111</v>
+        <v>522086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>539803</v>
+        <v>539727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9668260211255179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9482279960040861</v>
+        <v>0.9481819433360733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9803586821863248</v>
+        <v>0.9802199714235361</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>653</v>
@@ -4357,19 +4357,19 @@
         <v>466073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>457895</v>
+        <v>457958</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>472955</v>
+        <v>473640</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.954264407644788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9375197752026274</v>
+        <v>0.9376497404120128</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9683547503028884</v>
+        <v>0.9697560735080405</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1189</v>
@@ -4378,19 +4378,19 @@
         <v>998425</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>985204</v>
+        <v>985706</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1008651</v>
+        <v>1009012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9609212505466445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9481968750810583</v>
+        <v>0.9486800968570465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9707626779776061</v>
+        <v>0.9711100744628056</v>
       </c>
     </row>
     <row r="6">
@@ -4482,19 +4482,19 @@
         <v>20267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12084</v>
+        <v>11738</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33009</v>
+        <v>32328</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04194254391559258</v>
+        <v>0.04194254391559257</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02500842562634388</v>
+        <v>0.02429252808849711</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06831219851518334</v>
+        <v>0.0669029468638916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -4503,19 +4503,19 @@
         <v>26972</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19283</v>
+        <v>19499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36285</v>
+        <v>36016</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06383923211407619</v>
+        <v>0.0638392321140762</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04564120546166226</v>
+        <v>0.04615132407766041</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08588441127701078</v>
+        <v>0.0852459548959045</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -4524,19 +4524,19 @@
         <v>47239</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34573</v>
+        <v>35308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61772</v>
+        <v>60994</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05215688702182877</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03817300483332327</v>
+        <v>0.03898413983981213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06820373522119558</v>
+        <v>0.06734467797255263</v>
       </c>
     </row>
     <row r="8">
@@ -4553,19 +4553,19 @@
         <v>462945</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>450203</v>
+        <v>450884</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>471128</v>
+        <v>471474</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9580574560844074</v>
+        <v>0.9580574560844075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9316878014848166</v>
+        <v>0.9330970531361082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9749915743736561</v>
+        <v>0.9757074719115029</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>551</v>
@@ -4574,19 +4574,19 @@
         <v>395520</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>386207</v>
+        <v>386476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>403209</v>
+        <v>402993</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9361607678859237</v>
+        <v>0.9361607678859238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9141155887229894</v>
+        <v>0.9147540451040956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9543587945383378</v>
+        <v>0.9538486759223396</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1015</v>
@@ -4595,19 +4595,19 @@
         <v>858465</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>843932</v>
+        <v>844710</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>871131</v>
+        <v>870396</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9478431129781713</v>
+        <v>0.9478431129781711</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9317962647788046</v>
+        <v>0.9326553220274475</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9618269951666768</v>
+        <v>0.961015860160188</v>
       </c>
     </row>
     <row r="9">
@@ -4699,19 +4699,19 @@
         <v>13306</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7322</v>
+        <v>7354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22897</v>
+        <v>23148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02826609919197291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01555442187197992</v>
+        <v>0.01562243394542965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0486404394447341</v>
+        <v>0.0491729764256358</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -4720,19 +4720,19 @@
         <v>7501</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4122</v>
+        <v>4307</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12864</v>
+        <v>12343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04000637393140265</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02198697566038162</v>
+        <v>0.02297319223269199</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.068611648224843</v>
+        <v>0.06583283886577919</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -4741,19 +4741,19 @@
         <v>20807</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13293</v>
+        <v>13371</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31727</v>
+        <v>30877</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03161027036501619</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02019470691236966</v>
+        <v>0.02031271027391065</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04820007041406085</v>
+        <v>0.04690794918696716</v>
       </c>
     </row>
     <row r="11">
@@ -4770,19 +4770,19 @@
         <v>457437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>447846</v>
+        <v>447595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463421</v>
+        <v>463389</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9717339008080272</v>
+        <v>0.971733900808027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9513595605552659</v>
+        <v>0.9508270235743641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9844455781280201</v>
+        <v>0.9843775660545704</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -4791,19 +4791,19 @@
         <v>179996</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174633</v>
+        <v>175154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>183375</v>
+        <v>183190</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9599936260685973</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9313883517751569</v>
+        <v>0.9341671611342208</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9780130243396183</v>
+        <v>0.9770268077673079</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>751</v>
@@ -4812,19 +4812,19 @@
         <v>637434</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626514</v>
+        <v>627364</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>644948</v>
+        <v>644870</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9683897296349837</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9517999295859392</v>
+        <v>0.9530920508130329</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9798052930876306</v>
+        <v>0.9796872897260893</v>
       </c>
     </row>
     <row r="12">
@@ -4916,19 +4916,19 @@
         <v>42298</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31085</v>
+        <v>29851</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61086</v>
+        <v>59230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03737085780022396</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0274638260601429</v>
+        <v>0.02637389946532764</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0539706571373206</v>
+        <v>0.05233017042025929</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -4937,19 +4937,19 @@
         <v>39332</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29572</v>
+        <v>29912</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50956</v>
+        <v>52522</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0456943812140286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03435547980858655</v>
+        <v>0.03475062556126397</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05919876871182168</v>
+        <v>0.06101892765513333</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -4958,19 +4958,19 @@
         <v>81630</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66198</v>
+        <v>66896</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102405</v>
+        <v>103553</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0409664269556053</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03322180022782101</v>
+        <v>0.03357199026615547</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05139251753032437</v>
+        <v>0.05196861026194656</v>
       </c>
     </row>
     <row r="14">
@@ -4987,19 +4987,19 @@
         <v>1089545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1070757</v>
+        <v>1072613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1100758</v>
+        <v>1101992</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.962629142199776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9460293428626797</v>
+        <v>0.9476698295797408</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9725361739398578</v>
+        <v>0.9736261005346722</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1174</v>
@@ -5008,19 +5008,19 @@
         <v>821425</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>809801</v>
+        <v>808235</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>831185</v>
+        <v>830845</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9543056187859714</v>
+        <v>0.9543056187859715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9408012312881783</v>
+        <v>0.9389810723448666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9656445201914133</v>
+        <v>0.9652493744387359</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2251</v>
@@ -5029,19 +5029,19 @@
         <v>1910970</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1890195</v>
+        <v>1889047</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1926402</v>
+        <v>1925704</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9590335730443947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9486074824696757</v>
+        <v>0.9480313897380535</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9667781997721788</v>
+        <v>0.9664280097338446</v>
       </c>
     </row>
     <row r="15">
@@ -5133,19 +5133,19 @@
         <v>30323</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20190</v>
+        <v>19130</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46661</v>
+        <v>44459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05361433555799951</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03569724115419368</v>
+        <v>0.03382309772978898</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08250119288993391</v>
+        <v>0.07860856278999716</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -5154,19 +5154,19 @@
         <v>41550</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33015</v>
+        <v>33317</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53009</v>
+        <v>52765</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05012705951719241</v>
+        <v>0.05012705951719239</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03982980447154032</v>
+        <v>0.04019384039940486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06395100621725856</v>
+        <v>0.06365688573559693</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -5175,19 +5175,19 @@
         <v>71874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57124</v>
+        <v>58210</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88460</v>
+        <v>90425</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05154143914779469</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04096416177045352</v>
+        <v>0.04174335271504731</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06343611446118134</v>
+        <v>0.06484458989685116</v>
       </c>
     </row>
     <row r="17">
@@ -5204,19 +5204,19 @@
         <v>535255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>518917</v>
+        <v>521119</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>545388</v>
+        <v>546448</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9463856644420005</v>
+        <v>0.9463856644420006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9174988071100663</v>
+        <v>0.9213914372100026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9643027588458066</v>
+        <v>0.966176902270211</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1218</v>
@@ -5225,19 +5225,19 @@
         <v>787353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>775894</v>
+        <v>776138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>795888</v>
+        <v>795586</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9498729404828075</v>
+        <v>0.9498729404828076</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9360489937827415</v>
+        <v>0.9363431142644031</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9601701955284597</v>
+        <v>0.9598061596005951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1736</v>
@@ -5246,19 +5246,19 @@
         <v>1322607</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1306021</v>
+        <v>1304056</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1337357</v>
+        <v>1336271</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9484585608522055</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9365638855388188</v>
+        <v>0.9351554101031487</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9590358382295465</v>
+        <v>0.9582566472849522</v>
       </c>
     </row>
     <row r="18">
@@ -5350,19 +5350,19 @@
         <v>8496</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27210</v>
+        <v>24824</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03581374086997161</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00221584538188397</v>
+        <v>0.002278611647963003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1147000657401587</v>
+        <v>0.1046406440768862</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -5371,19 +5371,19 @@
         <v>35735</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26583</v>
+        <v>26938</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48433</v>
+        <v>47122</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04241095726204221</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03154923046371765</v>
+        <v>0.03197048429372364</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05748179691479639</v>
+        <v>0.05592604642844908</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -5392,19 +5392,19 @@
         <v>44231</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31954</v>
+        <v>32556</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61696</v>
+        <v>65077</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04096159035112149</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02959195608460128</v>
+        <v>0.03014986742504338</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05713596145420105</v>
+        <v>0.06026680594528906</v>
       </c>
     </row>
     <row r="20">
@@ -5421,19 +5421,19 @@
         <v>228732</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210018</v>
+        <v>212404</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236702</v>
+        <v>236687</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9641862591300284</v>
+        <v>0.9641862591300283</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8852999342598412</v>
+        <v>0.8953593559231136</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9977841546181161</v>
+        <v>0.9977213883520369</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1101</v>
@@ -5442,19 +5442,19 @@
         <v>806848</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>794150</v>
+        <v>795461</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>816000</v>
+        <v>815645</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9575890427379578</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9425182030852035</v>
+        <v>0.9440739535715508</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9684507695362822</v>
+        <v>0.9680295157062763</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1210</v>
@@ -5463,19 +5463,19 @@
         <v>1035580</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1018115</v>
+        <v>1014734</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1047857</v>
+        <v>1047255</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9590384096488787</v>
+        <v>0.9590384096488785</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9428640385457993</v>
+        <v>0.9397331940547111</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9704080439153987</v>
+        <v>0.9698501325749568</v>
       </c>
     </row>
     <row r="21">
@@ -5567,19 +5567,19 @@
         <v>132956</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106891</v>
+        <v>109429</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163821</v>
+        <v>165368</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03865887264936646</v>
+        <v>0.03865887264936645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0310800794214819</v>
+        <v>0.03181806116889916</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04763318286511642</v>
+        <v>0.04808283597194608</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>263</v>
@@ -5588,19 +5588,19 @@
         <v>173427</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>153810</v>
+        <v>151953</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197394</v>
+        <v>195334</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04776767586341313</v>
+        <v>0.04776767586341312</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04236453045120016</v>
+        <v>0.04185290938118535</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05436887245849314</v>
+        <v>0.05380150682596735</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>381</v>
@@ -5609,19 +5609,19 @@
         <v>306384</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>273662</v>
+        <v>274509</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>341772</v>
+        <v>343335</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04333658787662628</v>
+        <v>0.04333658787662627</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03870829458226947</v>
+        <v>0.03882805921903794</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04834203989701828</v>
+        <v>0.04856313211641064</v>
       </c>
     </row>
     <row r="23">
@@ -5638,19 +5638,19 @@
         <v>3306266</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3275401</v>
+        <v>3273854</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3332331</v>
+        <v>3329793</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9613411273506336</v>
+        <v>0.9613411273506335</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9523668171348836</v>
+        <v>0.9519171640280539</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9689199205785181</v>
+        <v>0.9681819388311006</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4973</v>
@@ -5659,19 +5659,19 @@
         <v>3457216</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3433249</v>
+        <v>3435309</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3476833</v>
+        <v>3478690</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.952232324136587</v>
+        <v>0.9522323241365869</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9456311275415069</v>
+        <v>0.9461984931740327</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9576354695487999</v>
+        <v>0.9581470906188146</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8152</v>
@@ -5680,19 +5680,19 @@
         <v>6763481</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6728093</v>
+        <v>6726530</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6796203</v>
+        <v>6795356</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9566634121233736</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9516579601029815</v>
+        <v>0.9514368678835894</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9612917054177305</v>
+        <v>0.9611719407809616</v>
       </c>
     </row>
     <row r="24">
